--- a/appserver/controller/user.xlsx
+++ b/appserver/controller/user.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="189">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -388,6 +388,9 @@
     <t xml:space="preserve">CSDL</t>
   </si>
   <si>
+    <t xml:space="preserve">Bui Quang Ha</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pham Thi Hau</t>
   </si>
   <si>
@@ -406,18 +409,24 @@
     <t xml:space="preserve">idRoom</t>
   </si>
   <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
     <t xml:space="preserve">slots</t>
   </si>
   <si>
     <t xml:space="preserve">status</t>
   </si>
   <si>
+    <t xml:space="preserve">12h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not used</t>
+  </si>
+  <si>
     <t xml:space="preserve">gd2</t>
   </si>
   <si>
-    <t xml:space="preserve">not used</t>
-  </si>
-  <si>
     <t xml:space="preserve">g2</t>
   </si>
   <si>
@@ -521,9 +530,6 @@
   </si>
   <si>
     <t xml:space="preserve">z9bj6qcC4KMZus8N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dNbrfcJUjQh6uwG2</t>
   </si>
   <si>
     <t xml:space="preserve">wdQuY3bqyn5Z47xm</t>
@@ -1485,7 +1491,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1673,7 +1679,7 @@
         <v>120</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D13" s="8" t="n">
         <v>2</v>
@@ -1684,10 +1690,10 @@
         <v>1113</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D14" s="8" t="n">
         <v>2</v>
@@ -1698,10 +1704,10 @@
         <v>1114</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D15" s="8" t="n">
         <v>4</v>
@@ -1726,7 +1732,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1738,16 +1744,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1755,13 +1761,13 @@
         <v>101</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" s="9" t="n">
         <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1769,13 +1775,13 @@
         <v>102</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>30</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1783,13 +1789,13 @@
         <v>103</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C4" s="9" t="n">
         <v>30</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1797,13 +1803,13 @@
         <v>104</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C5" s="9" t="n">
         <v>30</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1811,13 +1817,13 @@
         <v>105</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C6" s="9" t="n">
         <v>30</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1825,13 +1831,13 @@
         <v>106</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C7" s="9" t="n">
         <v>30</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1839,13 +1845,13 @@
         <v>107</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C8" s="9" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1853,13 +1859,13 @@
         <v>108</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C9" s="9" t="n">
         <v>30</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1867,13 +1873,13 @@
         <v>109</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C10" s="9" t="n">
         <v>30</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1881,13 +1887,13 @@
         <v>110</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C11" s="9" t="n">
         <v>30</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1895,13 +1901,13 @@
         <v>111</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C12" s="9" t="n">
         <v>30</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1909,13 +1915,13 @@
         <v>112</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C13" s="9" t="n">
         <v>30</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1923,13 +1929,13 @@
         <v>113</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C14" s="9" t="n">
         <v>30</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1937,13 +1943,13 @@
         <v>114</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C15" s="9" t="n">
         <v>30</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1951,13 +1957,13 @@
         <v>115</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C16" s="9" t="n">
         <v>30</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1978,8 +1984,8 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1991,13 +1997,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2005,10 +2011,10 @@
         <v>17021206</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2016,10 +2022,10 @@
         <v>17021209</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2027,10 +2033,10 @@
         <v>17021205</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2038,10 +2044,10 @@
         <v>17021208</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2049,10 +2055,10 @@
         <v>17021207</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2060,10 +2066,10 @@
         <v>17021210</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2071,10 +2077,10 @@
         <v>17021214</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2082,10 +2088,10 @@
         <v>17021213</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2093,10 +2099,10 @@
         <v>17021219</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2104,10 +2110,10 @@
         <v>17021222</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2115,10 +2121,10 @@
         <v>17021221</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2126,10 +2132,10 @@
         <v>17021229</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2137,10 +2143,10 @@
         <v>17021227</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2148,10 +2154,10 @@
         <v>17021237</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2159,10 +2165,10 @@
         <v>17021241</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2170,10 +2176,10 @@
         <v>17021242</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2181,10 +2187,10 @@
         <v>17021244</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2192,10 +2198,10 @@
         <v>17021246</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2203,10 +2209,10 @@
         <v>17021254</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2214,10 +2220,10 @@
         <v>17021257</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2225,10 +2231,10 @@
         <v>17021259</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2236,10 +2242,10 @@
         <v>17021264</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2247,10 +2253,10 @@
         <v>17021275</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2258,10 +2264,10 @@
         <v>17020030</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2269,10 +2275,10 @@
         <v>17021280</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2280,10 +2286,10 @@
         <v>17021287</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2291,10 +2297,10 @@
         <v>17021284</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2302,21 +2308,21 @@
         <v>17021286</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
         <v>17020059</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>166</v>
+      <c r="B30" s="0" t="n">
+        <v>44545456545456</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2324,10 +2330,10 @@
         <v>17021299</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,10 +2341,10 @@
         <v>17021302</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2346,10 +2352,10 @@
         <v>17021300</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2357,10 +2363,10 @@
         <v>17021304</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2368,10 +2374,10 @@
         <v>17021309</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2379,10 +2385,10 @@
         <v>17021306</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2390,10 +2396,10 @@
         <v>17021307</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2401,10 +2407,10 @@
         <v>17021314</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2412,10 +2418,10 @@
         <v>17021315</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2423,10 +2429,10 @@
         <v>17021316</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2434,10 +2440,10 @@
         <v>17021319</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2445,10 +2451,10 @@
         <v>17021321</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2456,10 +2462,10 @@
         <v>17021325</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2467,10 +2473,10 @@
         <v>17021326</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2478,10 +2484,10 @@
         <v>17021343</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2489,10 +2495,10 @@
         <v>17021352</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2500,10 +2506,10 @@
         <v>17021354</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2511,10 +2517,10 @@
         <v>17021338</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2522,10 +2528,10 @@
         <v>17021341</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2533,10 +2539,10 @@
         <v>17021342</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
